--- a/UPS_Shipping_Feed.xlsx
+++ b/UPS_Shipping_Feed.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1607902753</t>
+          <t>1608295604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,42 +608,13 @@
           <t>7-Oct-22</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1ZE947W05491609345</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FT 807</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>WAREHOUSING - DUTY - HANDBAGS</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>951</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>WW Express Plus</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>1246.42</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+          <t>Discounts</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>1246.42</v>
+        <v>168.46</v>
       </c>
     </row>
     <row r="6">
@@ -667,9 +638,6 @@
           <t>Discounts</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>168.46</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -733,8 +701,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>243.47</v>
       </c>
     </row>
     <row r="10">
@@ -745,45 +716,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1606895451</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1ZW527386696882597</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>DDT RET2204150</t>
+          <t>3-Oct-22</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>951</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>243.47</v>
-      </c>
-      <c r="O10" t="n">
-        <v>168.46</v>
-      </c>
-      <c r="P10" t="n">
-        <v>75.01000000000001</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -794,21 +738,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1606895451</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>3-Oct-22</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>243.47</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -832,6 +773,9 @@
           <t>Discounts</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>423.91</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -873,11 +817,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>423.91</v>
+        <v>594.1799999999999</v>
       </c>
     </row>
     <row r="15">
@@ -898,8 +842,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Amount Paid/Adjusted</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>170.27</v>
       </c>
     </row>
     <row r="16">
@@ -910,21 +857,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1610191159</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>594.1799999999999</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -935,50 +879,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1610191159</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1ZE947W00492558537</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>FT 800</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>WAREHOUSING - DUTY - HANDBAGS</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>451</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>594.1799999999999</v>
-      </c>
-      <c r="O17" t="n">
-        <v>423.91</v>
-      </c>
-      <c r="P17" t="n">
-        <v>170.27</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -989,21 +901,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1610191159</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Amount Paid/Adjusted</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>170.27</v>
+        <v>81.61</v>
       </c>
     </row>
     <row r="19">
@@ -1022,32 +934,10 @@
           <t>11-Oct-22</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1Z91800V6696782421</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>951</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>159.84</v>
-      </c>
-      <c r="O19" t="n">
-        <v>81.61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>78.23</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1068,8 +958,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Transportation Charges</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>159.84</v>
       </c>
     </row>
     <row r="21">
@@ -1102,21 +995,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1608447422</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>4-Oct-22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>81.61</v>
+        <v>885.4400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1127,12 +1020,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1609495388</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1149,21 +1042,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1609495388</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>159.84</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1174,12 +1064,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1609495388</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1196,12 +1086,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1609495388</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1210,7 +1100,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>885.4400000000001</v>
+        <v>599.3200000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1221,50 +1111,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1609495388</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1ZW710040493329059</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>BI_298_GH</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>WAREHOUSING - DUTY - HANDBAGS</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Dom. Express Saver</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>125.92</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+          <t>Discounts</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>125.92</v>
+        <v>425.72</v>
       </c>
     </row>
     <row r="28">
@@ -1275,45 +1136,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1611124247</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1ZW710040496675965</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>BI_297_GH</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Dom. Express Saver</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>125.92</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>125.92</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1324,50 +1158,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1611124247</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1Z3047Y70496393542</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>VE7909</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>WAREHOUSING - DUTY - HANDBAGS</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Dom. Express Saver</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>362.92</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>362.92</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1378,45 +1180,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1611124247</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1ZW710040491026228</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>BI_296_GH</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Dom. Express Saver</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>270.68</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>270.68</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1427,18 +1202,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1611124247</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Transportation Charges</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>586.9</v>
       </c>
     </row>
     <row r="32">
@@ -1449,105 +1227,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1611124247</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
+      </c>
+      <c r="P32" t="n">
+        <v>419.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1608843646</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1Z91800V6690661054</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>INV 1061</t>
+          <t>5-Oct-22</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>951</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>599.3200000000001</v>
-      </c>
-      <c r="O33" t="n">
-        <v>425.72</v>
+          <t>Brokerage Charges</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>173.6</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1608843646</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>5-Oct-22</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>10.63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1556,48 +1316,45 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>599.3200000000001</v>
+        <v>2559.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
-      </c>
-      <c r="P36" t="n">
-        <v>425.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1609,17 +1366,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1631,122 +1388,98 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
+      </c>
+      <c r="P39" t="n">
+        <v>1488.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1610191257</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1Z91800V0499617130</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>PROFORMA NR.95</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>451</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>586.9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>419.12</v>
-      </c>
-      <c r="P40" t="n">
-        <v>167.78</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1608447440</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>4-Oct-22</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>586.9</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0000083Y99</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1608447440</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>4-Oct-22</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>419.12</v>
+        <v>172.81</v>
       </c>
     </row>
     <row r="43">
@@ -1757,12 +1490,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1608843646</t>
+          <t>1608447440</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5-Oct-22</t>
+          <t>4-Oct-22</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -1771,7 +1504,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>7.14</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="44">
@@ -1782,21 +1515,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1608843646</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>10.63</v>
+        <v>7655.84</v>
       </c>
     </row>
     <row r="45">
@@ -1807,45 +1540,18 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1608843646</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5-Oct-22</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1Z084VF30498692897</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>PF23 FABRIC</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>401</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>17.77</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1562,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1866,11 +1572,8 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>2559.48</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1881,7 +1584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1891,8 +1594,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>30.25</v>
       </c>
     </row>
     <row r="48">
@@ -1903,7 +1609,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1913,8 +1619,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>11793.38</v>
       </c>
     </row>
     <row r="49">
@@ -1925,7 +1634,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1933,42 +1642,13 @@
           <t>11-Oct-22</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1ZA5781X0495568002</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2223/24253</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>PANELS</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>4</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>132.67</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+          <t>US Customs Duties</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>132.67</v>
+        <v>1429.86</v>
       </c>
     </row>
     <row r="50">
@@ -1979,7 +1659,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1987,42 +1667,13 @@
           <t>11-Oct-22</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1Z00WR690415114964</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2268</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1347</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>451</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>2426.81</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1488.14</v>
+          <t>Govt. Charges Other Than Duties</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>938.67</v>
+        <v>82.55</v>
       </c>
     </row>
     <row r="51">
@@ -2033,7 +1684,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2055,7 +1706,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610117248</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,9 +1718,6 @@
         <is>
           <t>Discounts</t>
         </is>
-      </c>
-      <c r="P52" t="n">
-        <v>1488.14</v>
       </c>
     </row>
     <row r="53">
@@ -2080,12 +1728,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1610995899</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2102,21 +1750,18 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1610995899</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Government Charges</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>16.93</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2127,21 +1772,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1610995899</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>172.81</v>
+        <v>597.05</v>
       </c>
     </row>
     <row r="56">
@@ -2152,21 +1797,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1610995899</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>10.26</v>
+        <v>421.93</v>
       </c>
     </row>
     <row r="57">
@@ -2177,40 +1822,18 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1610995899</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1ZW834956897561605</t>
+          <t>14-Oct-22</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Dom. Standard</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>59.03</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>59.03</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2221,50 +1844,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1ZA5781X0495568002</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2223/24253</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>PANELS</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>4</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+          <t>Fees</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>27.19</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="59">
@@ -2275,40 +1869,18 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1Z49A7W46899692603</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Dom. Standard</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>113.78</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>113.78</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2319,21 +1891,44 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Oct-22</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1Z084VF36715683998</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Worldwide Service</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>601</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Worldwide Expedited</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$184.86 </t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>($52.18)</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>7655.84</v>
+        <v>132.68</v>
       </c>
     </row>
     <row r="61">
@@ -2344,17 +1939,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
     </row>
@@ -2366,18 +1961,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Fees</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$25.05 </t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$0.00 </t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>25.05</v>
       </c>
     </row>
     <row r="63">
@@ -2388,21 +1996,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>30.25</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2413,50 +2018,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3412</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1Z00WR690410505336</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2267</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>DC</t>
+          <t>8-Oct-22</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>451</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>13336.04</v>
-      </c>
-      <c r="O64" t="n">
-        <v>7655.84</v>
+          <t>Worldwide Service</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>5680.2</v>
+        <v>132.68</v>
       </c>
     </row>
     <row r="65">
@@ -2467,21 +2043,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3422</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>15-Oct-22</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>11793.38</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="66">
@@ -2492,21 +2068,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3422</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>15-Oct-22</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Fees</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$4.44 </t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$0.00 </t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1429.86</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="67">
@@ -2517,21 +2103,18 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>82.55</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2542,12 +2125,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -2564,18 +2147,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1491.59</v>
       </c>
     </row>
     <row r="70">
@@ -2586,40 +2172,18 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1ZF197R06693111897</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>951</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>246.41</v>
-      </c>
-      <c r="O70" t="n">
-        <v>170.49</v>
-      </c>
-      <c r="P70" t="n">
-        <v>75.92</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2630,12 +2194,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -2652,12 +2216,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2674,21 +2238,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>597.05</v>
+        <v>1063.07</v>
       </c>
     </row>
     <row r="74">
@@ -2699,12 +2263,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -2713,7 +2277,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>421.93</v>
+        <v>165.97</v>
       </c>
     </row>
     <row r="75">
@@ -2724,12 +2288,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -2746,45 +2310,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1Z49A7W46698177041</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>VG</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>951</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>350.64</v>
-      </c>
-      <c r="O76" t="n">
-        <v>251.44</v>
+          <t>Consignee Charges</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>99.2</v>
+        <v>239.87</v>
       </c>
     </row>
     <row r="77">
@@ -2795,21 +2335,18 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>25.05</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2820,1027 +2357,242 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Outbound</t>
+          <t>Discounts</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1Z084VF36715683998</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>601</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Worldwide Expedited</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>184.86</v>
-      </c>
-      <c r="O79" t="n">
-        <v>52.18</v>
+          <t>Brokerage Charges</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>132.68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Outbound</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>424.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+          <t>Govt. Charges Other Than Duties</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>25.05</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Outbound</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>733.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>132.68</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>000000084VF3422</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.44</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>000000084VF3422</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+          <t>Brokerage Charges</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>4.44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>1491.59</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>M2405005210</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>951</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>WW Express</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>477.29</v>
-      </c>
-      <c r="O91" t="n">
-        <v>341.44</v>
-      </c>
-      <c r="P91" t="n">
-        <v>135.85</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1ZY6817A0491404184</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>4589/G</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>451</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>1014.3</v>
-      </c>
-      <c r="O93" t="n">
-        <v>721.63</v>
-      </c>
-      <c r="P93" t="n">
-        <v>292.67</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>10-Oct-22</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>1063.07</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>165.97</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>239.87</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0000084VF3</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>17-Oct-22</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>1ZW648220450616181</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>PROF DEL 14/10/2022</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>WAREHOUSING - DUTY - HANDBAGS</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>451</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>239.87</v>
-      </c>
-      <c r="O100" t="n">
-        <v>165.97</v>
-      </c>
-      <c r="P100" t="n">
-        <v>73.90000000000001</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>1Z00WR690415114964</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2268</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1347</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>451</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>466.04</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>466.04</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>424.38</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>7-Oct-22</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
           <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
-      <c r="P104" t="n">
-        <v>29.66</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>13-Oct-22</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1Z00WR690401374576</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>VG</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>1347</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>451</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>791.6799999999999</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" t="n">
-        <v>791.6799999999999</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>13-Oct-22</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>733.8</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>13-Oct-22</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>15.52</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>13-Oct-22</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>42.36</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1Z2861FX0455114392</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>33047730063</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>SA RIYADH</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>3</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>WW Saver</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>269.66</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" t="n">
-        <v>269.66</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
+      <c r="P87" t="n">
         <v>29.66</v>
       </c>
     </row>
@@ -3855,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AG87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4063,7 +2815,7 @@
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -4081,7 +2833,7 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0</v>
+        <v>1152.22</v>
       </c>
     </row>
     <row r="4">
@@ -4099,13 +2851,31 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>100722</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1608295604</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -4113,37 +2883,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8103-30-6000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1246.42</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>FT 807</t>
-        </is>
+        <v>-168.46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1608295604</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4200,7 +2947,7 @@
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -4212,36 +2959,49 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
+        <v>243.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100322</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1606895451</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>75.01000000000001</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>DDT RET2204150</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -4257,24 +3017,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>100322</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1606895451</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4289,7 +3031,7 @@
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>-423.91</v>
       </c>
     </row>
     <row r="13">
@@ -4313,7 +3055,7 @@
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -4325,13 +3067,13 @@
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>594.1799999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Amount Paid/Adjusted</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -4343,13 +3085,31 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>101122</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1610191159</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -4367,7 +3127,7 @@
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -4375,22 +3135,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8103-30-6000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>170.27</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>FT 800</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Amount Paid/Adjusted</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -4402,49 +3157,31 @@
         </is>
       </c>
       <c r="K18" s="2" t="n">
+        <v>-81.61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1610191159</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>78.23</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -4456,7 +3193,7 @@
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>159.84</v>
       </c>
     </row>
     <row r="21">
@@ -4478,9 +3215,27 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>100422</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1608447422</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -4492,10 +3247,28 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>885.4400000000001</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100722</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1609495388</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4516,7 +3289,7 @@
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -4550,24 +3323,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>100422</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1608447422</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Transportation Charges</t>
@@ -4582,13 +3337,13 @@
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>599.3200000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -4596,22 +3351,35 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>8103-30-6000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>125.92</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>BI_298_GH</t>
-        </is>
+        <v>-425.72</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>101422</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1611124247</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -4623,18 +3391,13 @@
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>125.92</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>BI_297_GH</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -4642,22 +3405,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8103-30-6000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>362.92</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>VE7909</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -4669,36 +3427,13 @@
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>270.68</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>BI_296_GH</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1609495388</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -4710,7 +3445,7 @@
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0</v>
+        <v>586.9</v>
       </c>
     </row>
     <row r="32">
@@ -4728,13 +3463,31 @@
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0</v>
+        <v>-419.12</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>100522</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1608843646</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -4746,18 +3499,13 @@
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>173.6</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>INV 1061</t>
-        </is>
+        <v>7.14</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -4769,10 +3517,28 @@
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>101122</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1610191257</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Transportation Charges</t>
@@ -4787,7 +3553,7 @@
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0</v>
+        <v>2559.48</v>
       </c>
     </row>
     <row r="36">
@@ -4809,24 +3575,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>101422</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1611124247</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4877,13 +3625,13 @@
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0</v>
+        <v>-1488.14</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -4895,18 +3643,31 @@
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>167.78</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>PROFORMA NR.95</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>100422</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1608447440</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -4918,13 +3679,13 @@
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -4936,49 +3697,49 @@
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0</v>
+        <v>172.81</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>100370</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>AD</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>100522</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1608843646</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>101122</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1610117248</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -4990,13 +3751,13 @@
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0</v>
+        <v>-7655.84</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -5008,36 +3769,13 @@
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>PF23 FABRIC</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1610191257</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -5055,7 +3793,7 @@
     <row r="47">
       <c r="E47" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -5067,13 +3805,13 @@
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -5085,13 +3823,13 @@
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0</v>
+        <v>11793.38</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -5103,18 +3841,13 @@
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>132.67</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2223/24253</t>
-        </is>
+        <v>1429.86</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -5126,12 +3859,7 @@
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>938.67</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>2268</t>
-        </is>
+        <v>82.55</v>
       </c>
     </row>
     <row r="51">
@@ -5171,6 +3899,24 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>101422</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1610995899</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -5189,27 +3935,9 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>100422</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1608447440</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -5227,7 +3955,7 @@
     <row r="55">
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -5239,13 +3967,13 @@
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>0</v>
+        <v>597.05</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -5257,13 +3985,13 @@
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>0</v>
+        <v>-421.93</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -5275,13 +4003,31 @@
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>59.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>100822</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>000000084VF3412</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -5293,18 +4039,13 @@
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>2223/24253</t>
-        </is>
+        <v>25.05</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -5316,31 +4057,13 @@
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>113.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1610117248</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -5352,13 +4075,13 @@
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>0</v>
+        <v>132.68</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5376,7 +4099,7 @@
     <row r="62">
       <c r="E62" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5388,13 +4111,13 @@
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>0</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5412,7 +4135,7 @@
     <row r="64">
       <c r="E64" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5424,18 +4147,31 @@
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>5680.2</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>2267</t>
-        </is>
+        <v>132.68</v>
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>101522</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>000000084VF3422</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5447,13 +4183,13 @@
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5465,13 +4201,31 @@
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>101022</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1609849442</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5507,7 +4261,7 @@
     <row r="69">
       <c r="E69" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5519,43 +4273,25 @@
         </is>
       </c>
       <c r="K69" s="2" t="n">
+        <v>1491.59</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>101422</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1610995899</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>75.92</v>
       </c>
     </row>
     <row r="71">
@@ -5597,7 +4333,7 @@
     <row r="73">
       <c r="E73" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5609,10 +4345,28 @@
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>0</v>
+        <v>-1063.07</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>101722</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1611447069</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -5627,7 +4381,7 @@
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>0</v>
+        <v>-165.97</v>
       </c>
     </row>
     <row r="75">
@@ -5651,7 +4405,7 @@
     <row r="76">
       <c r="E76" t="inlineStr">
         <is>
-          <t>Import Shipment Detail</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -5663,36 +4417,13 @@
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>VG</t>
-        </is>
+        <v>239.87</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>100822</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>000000084VF3412</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5710,7 +4441,7 @@
     <row r="78">
       <c r="E78" t="inlineStr">
         <is>
-          <t>Outbound</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -5726,9 +4457,27 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>100722</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1609443282</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5740,13 +4489,13 @@
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>132.68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="inlineStr">
         <is>
-          <t>Outbound</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -5758,13 +4507,13 @@
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>0</v>
+        <v>424.38</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5776,13 +4525,31 @@
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>0</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>101322</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1610709868</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Outbound</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5794,13 +4561,13 @@
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>0</v>
+        <v>733.8</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5812,49 +4579,49 @@
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>0</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Govt. Charges Other Than Duties</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
         <v>100370</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>AD</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>101522</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>000000084VF3422</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>101122</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1610136147</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5866,31 +4633,13 @@
         </is>
       </c>
       <c r="K85" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>101022</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5902,13 +4651,13 @@
         </is>
       </c>
       <c r="K86" s="2" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5920,554 +4669,7 @@
         </is>
       </c>
       <c r="K87" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>135.85</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>292.67</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>4589/G</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>101722</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Discounts</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>8103-30-6000</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>PROF DEL 14/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="n">
-        <v>466.04</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>2268</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>101322</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="n">
-        <v>791.6799999999999</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>VG</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Import Shipment Detail</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="n">
-        <v>269.66</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>33047730063</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="n">
-        <v>0</v>
+        <v>29.66</v>
       </c>
     </row>
   </sheetData>

--- a/UPS_Shipping_Feed.xlsx
+++ b/UPS_Shipping_Feed.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,36 +1899,10 @@
           <t>8-Oct-22</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1Z084VF36715683998</t>
-        </is>
-      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>601</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Worldwide Expedited</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$184.86 </t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>($52.18)</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>132.68</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1971,21 +1945,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$25.05 </t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0.00 </t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>25.05</v>
+        <v>132.68</v>
       </c>
     </row>
     <row r="63">
@@ -1996,18 +1960,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>000000084VF3422</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>15-Oct-22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Outbound</t>
-        </is>
+          <t>Fees</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="64">
@@ -2018,21 +1985,18 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>132.68</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2043,21 +2007,18 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>000000084VF3422</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>4.44</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2068,31 +2029,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>000000084VF3422</t>
+          <t>1609849442</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15-Oct-22</t>
+          <t>10-Oct-22</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$4.44 </t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0.00 </t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.44</v>
+        <v>1491.59</v>
       </c>
     </row>
     <row r="67">
@@ -2157,11 +2108,8 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>1491.59</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2185,6 +2133,9 @@
           <t>Discounts</t>
         </is>
       </c>
+      <c r="P70" t="n">
+        <v>1063.07</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2194,18 +2145,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
+      </c>
+      <c r="P71" t="n">
+        <v>165.97</v>
       </c>
     </row>
     <row r="72">
@@ -2216,12 +2170,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2238,21 +2192,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1611447069</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>17-Oct-22</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1063.07</v>
+        <v>239.87</v>
       </c>
     </row>
     <row r="74">
@@ -2276,9 +2230,6 @@
           <t>Discounts</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>165.97</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2305,70 +2256,76 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>239.87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>424.38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>000065V624</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1609443282</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>7-Oct-22</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Govt. Charges Other Than Duties</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>29.66</v>
       </c>
     </row>
     <row r="79">
@@ -2379,21 +2336,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>12</v>
+        <v>733.8</v>
       </c>
     </row>
     <row r="80">
@@ -2404,21 +2361,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>424.38</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="81">
@@ -2429,12 +2386,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>13-Oct-22</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -2443,7 +2400,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>29.66</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="82">
@@ -2454,21 +2411,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>733.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -2479,21 +2436,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>15.52</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
@@ -2504,12 +2461,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>11-Oct-22</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -2518,81 +2475,6 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>42.36</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>000065V624</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
         <v>29.66</v>
       </c>
     </row>
@@ -2607,7 +2489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG87"/>
+  <dimension ref="A1:AG84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,7 +3917,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>9000-00-0000</t>
+          <t>8105-00-7000</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
@@ -4063,7 +3945,7 @@
     <row r="60">
       <c r="E60" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4075,7 +3957,7 @@
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>132.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4099,79 +3981,97 @@
     <row r="62">
       <c r="E62" t="inlineStr">
         <is>
+          <t>Worldwide Service</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>132.68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>101522</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>000000084VF3422</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Fees</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>25.05</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Outbound</t>
-        </is>
-      </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9000-00-0000</t>
+          <t>8105-00-7000</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>101022</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1609849442</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Worldwide Service</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>132.68</v>
-      </c>
-    </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>101522</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>000000084VF3422</t>
-        </is>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4183,13 +4083,13 @@
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4201,28 +4101,10 @@
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>4.44</v>
+        <v>1491.59</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>101022</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4261,7 +4143,7 @@
     <row r="69">
       <c r="E69" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4273,7 +4155,7 @@
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>1491.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4291,10 +4173,28 @@
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>0</v>
+        <v>-1063.07</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>101722</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1611447069</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4309,7 +4209,7 @@
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>0</v>
+        <v>-165.97</v>
       </c>
     </row>
     <row r="72">
@@ -4333,7 +4233,7 @@
     <row r="73">
       <c r="E73" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4345,28 +4245,10 @@
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-1063.07</v>
+        <v>239.87</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>101722</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1611447069</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4381,7 +4263,7 @@
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-165.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4403,9 +4285,27 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>100722</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1609443282</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4417,13 +4317,13 @@
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>239.87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4435,13 +4335,13 @@
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>0</v>
+        <v>424.38</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Govt. Charges Other Than Duties</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4453,7 +4353,7 @@
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>0</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="79">
@@ -4467,17 +4367,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>100722</t>
+          <t>101322</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1610709868</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4489,13 +4389,13 @@
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>12</v>
+        <v>733.8</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4507,7 +4407,7 @@
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>424.38</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="81">
@@ -4525,7 +4425,7 @@
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>29.66</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="82">
@@ -4539,17 +4439,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>101322</t>
+          <t>101122</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1610136147</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4561,13 +4461,13 @@
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>733.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4579,7 +4479,7 @@
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>15.52</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
@@ -4597,78 +4497,6 @@
         </is>
       </c>
       <c r="K84" s="2" t="n">
-        <v>42.36</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="n">
         <v>29.66</v>
       </c>
     </row>

--- a/UPS_Shipping_Feed.xlsx
+++ b/UPS_Shipping_Feed.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,21 +525,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1607902753</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>12</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -550,21 +547,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1607902753</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1152.22</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -575,21 +569,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1607902753</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>82.2</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -600,21 +591,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>168.46</v>
+        <v>208.78</v>
       </c>
     </row>
     <row r="6">
@@ -625,18 +616,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Amount Paid/Adjusted</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>73.23</v>
       </c>
     </row>
     <row r="7">
@@ -647,18 +641,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
+      </c>
+      <c r="P7" t="n">
+        <v>135.55</v>
       </c>
     </row>
     <row r="8">
@@ -669,12 +666,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -691,21 +688,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1608295604</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>243.47</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -716,12 +710,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -738,18 +732,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>318.1</v>
       </c>
     </row>
     <row r="12">
@@ -760,12 +757,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -774,7 +771,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>423.91</v>
+        <v>188.02</v>
       </c>
     </row>
     <row r="13">
@@ -785,18 +782,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1623495351</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Amount Paid/Adjusted</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>130.08</v>
       </c>
     </row>
     <row r="14">
@@ -807,21 +807,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>594.1799999999999</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -832,21 +829,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1606895451</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Amount Paid/Adjusted</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>170.27</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -857,12 +851,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -879,18 +873,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
+      </c>
+      <c r="P17" t="n">
+        <v>134.74</v>
       </c>
     </row>
     <row r="18">
@@ -901,21 +898,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Amount Paid/Adjusted</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>81.61</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="19">
@@ -926,18 +923,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624527421</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>207.52</v>
       </c>
     </row>
     <row r="20">
@@ -948,21 +948,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>159.84</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -973,12 +970,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1610191159</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -995,21 +992,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1608447422</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>885.4400000000001</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1020,12 +1014,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1042,18 +1036,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -1064,18 +1061,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="26">
@@ -1086,21 +1086,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>599.3200000000001</v>
+        <v>415.21</v>
       </c>
     </row>
     <row r="27">
@@ -1111,21 +1111,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1609495388</t>
+          <t>1624079522</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>29-Nov-22</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>425.72</v>
+        <v>697.0599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1202,21 +1202,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>586.9</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1227,46 +1224,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>419.12</v>
+        <v>636.0599999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0000084VF3</t>
+          <t>0000083Y99</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1608843646</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>7.14</v>
+        <v>305.17</v>
       </c>
     </row>
     <row r="34">
@@ -1277,21 +1274,18 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1608843646</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Government Charges</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>10.63</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1302,21 +1296,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>2559.48</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1327,12 +1318,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1349,12 +1340,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1371,12 +1362,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1393,12 +1384,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1407,7 +1398,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1488.14</v>
+        <v>1131.34</v>
       </c>
     </row>
     <row r="40">
@@ -1418,18 +1409,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1610191257</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>850.0700000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1440,21 +1434,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>16.93</v>
+        <v>1630.48</v>
       </c>
     </row>
     <row r="42">
@@ -1465,21 +1459,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1625263991</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>2-Dec-22</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>172.81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -1490,21 +1484,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1608447440</t>
+          <t>1626770100</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4-Oct-22</t>
+          <t>8-Dec-22</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>10.26</v>
+        <v>243.96</v>
       </c>
     </row>
     <row r="44">
@@ -1515,12 +1509,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1626770100</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Dec-22</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -1529,7 +1523,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>7655.84</v>
+        <v>168.8</v>
       </c>
     </row>
     <row r="45">
@@ -1540,12 +1534,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1626770100</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Dec-22</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -1562,12 +1556,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1626770100</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Dec-22</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -1584,21 +1578,18 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>1626770100</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>8-Dec-22</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>30.25</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1609,21 +1600,18 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>11793.38</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1634,21 +1622,18 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>1429.86</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1659,21 +1644,18 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>82.55</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1684,17 +1666,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1688,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1610117248</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
     </row>
@@ -1728,18 +1710,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Shipping Charge Corrections</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.99</v>
       </c>
     </row>
     <row r="54">
@@ -1750,18 +1735,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Worldwide Service</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>115.76</v>
       </c>
     </row>
     <row r="55">
@@ -1772,21 +1760,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>000000084VF3492</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>3-Dec-22</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Adjustments</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>597.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1797,21 +1785,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>421.93</v>
+        <v>107.36</v>
       </c>
     </row>
     <row r="57">
@@ -1822,17 +1810,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1610995899</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
     </row>
@@ -1844,21 +1832,18 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>25.05</v>
+          <t>Outbound</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1869,12 +1854,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -1891,12 +1876,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -1913,12 +1898,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>000000084VF3502</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>10-Dec-22</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -1935,21 +1920,18 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>000000084VF3412</t>
+          <t>1623620241</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>132.68</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1960,21 +1942,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>000000084VF3422</t>
+          <t>1623620241</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Fees</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>4.44</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1985,12 +1964,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1623620241</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2007,18 +1986,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1623620241</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>906.49</v>
       </c>
     </row>
     <row r="66">
@@ -2029,21 +2011,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1623620241</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>28-Nov-22</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1491.59</v>
+        <v>398.55</v>
       </c>
     </row>
     <row r="67">
@@ -2054,18 +2036,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1624230714</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>30-Nov-22</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -2076,18 +2061,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1624230714</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>30-Nov-22</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>155.56</v>
       </c>
     </row>
     <row r="69">
@@ -2098,18 +2086,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1624401904</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>30-Nov-22</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>34.56</v>
       </c>
     </row>
     <row r="70">
@@ -2120,21 +2111,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1609849442</t>
+          <t>1624401904</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10-Oct-22</t>
+          <t>30-Nov-22</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1063.07</v>
+        <v>94.56</v>
       </c>
     </row>
     <row r="71">
@@ -2145,21 +2136,18 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Discounts</t>
         </is>
-      </c>
-      <c r="P71" t="n">
-        <v>165.97</v>
       </c>
     </row>
     <row r="72">
@@ -2170,12 +2158,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2192,21 +2180,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>239.87</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2217,18 +2202,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>269.44</v>
       </c>
     </row>
     <row r="75">
@@ -2239,243 +2227,550 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>17-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Discounts</t>
-        </is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>438.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>12</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>1-Dec-22</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>424.38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1609443282</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>29.66</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>733.8</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>15.52</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1610709868</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>42.36</v>
+          <t>Discounts</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1610136147</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>12</v>
+        <v>291.62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>000065V624</t>
+          <t>0000084VF3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1610136147</t>
+          <t>1626183736</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11-Oct-22</t>
+          <t>6-Dec-22</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>228</v>
+        <v>817.87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1626263088</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6-Dec-22</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1626263088</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>6-Dec-22</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1626995154</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>8-Dec-22</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1626995154</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8-Dec-22</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1624079577</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>29-Nov-22</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1624079577</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>29-Nov-22</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Transportation Charges</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>356.62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1624079577</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>29-Nov-22</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9-Dec-22</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>74.48999999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>9-Dec-22</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9-Dec-22</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9-Dec-22</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0000084VF3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9-Dec-22</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>147.32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>000065V624</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>11-Oct-22</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>29.66</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1624745981</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1-Dec-22</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>US Customs Duties</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>389.76</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>000065V624</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1624745981</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1-Dec-22</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG84"/>
+  <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2675,17 +2970,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100722</t>
+          <t>112822</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1607902753</t>
+          <t>1622591481</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -2697,13 +2992,13 @@
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -2715,13 +3010,13 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1152.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -2733,31 +3028,13 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>82.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1608295604</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -2769,13 +3046,13 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-168.46</v>
+        <v>208.78</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Amount Paid/Adjusted</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -2787,7 +3064,7 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="7">
@@ -2805,10 +3082,28 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0</v>
+        <v>-135.55</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>112922</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1623495351</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -2829,7 +3124,7 @@
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2841,28 +3136,10 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>243.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>100322</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1606895451</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -2883,7 +3160,7 @@
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -2895,7 +3172,7 @@
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0</v>
+        <v>318.1</v>
       </c>
     </row>
     <row r="12">
@@ -2913,13 +3190,13 @@
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-423.91</v>
+        <v>-188.02</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Amount Paid/Adjusted</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -2931,31 +3208,49 @@
         </is>
       </c>
       <c r="K13" s="2" t="n">
+        <v>130.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>120222</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1624527421</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Consignee Charges</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>594.1799999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amount Paid/Adjusted</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -2967,28 +3262,10 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>170.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1610191159</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -3021,13 +3298,13 @@
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0</v>
+        <v>-134.74</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Amount Paid/Adjusted</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -3039,13 +3316,13 @@
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-81.61</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -3057,25 +3334,43 @@
         </is>
       </c>
       <c r="K19" s="2" t="n">
+        <v>207.52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>112922</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1624079522</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Transportation Charges</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>159.84</v>
       </c>
     </row>
     <row r="21">
@@ -3097,27 +3392,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>100422</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1608447422</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -3129,28 +3406,10 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>885.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1609495388</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -3171,7 +3430,7 @@
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -3183,13 +3442,13 @@
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -3201,13 +3460,13 @@
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -3219,13 +3478,13 @@
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>599.3200000000001</v>
+        <v>-415.21</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -3237,7 +3496,7 @@
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-425.72</v>
+        <v>697.0599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3251,12 +3510,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>101422</t>
+          <t>120622</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1611124247</t>
+          <t>1626183709</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3315,7 +3574,7 @@
     <row r="31">
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -3327,13 +3586,13 @@
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>586.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Transportation Charges</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -3345,49 +3604,49 @@
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-419.12</v>
+        <v>636.0599999999999</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>-305.17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>100370</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>AD</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>100522</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1608843646</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Brokerage Charges</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>120222</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1625263991</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3399,31 +3658,13 @@
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>10.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1610191257</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3435,7 +3676,7 @@
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>2559.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3507,13 +3748,13 @@
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-1488.14</v>
+        <v>-1131.34</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3525,31 +3766,13 @@
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0</v>
+        <v>850.0700000000001</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>100422</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1608447440</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Government Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3561,13 +3784,13 @@
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>16.93</v>
+        <v>1630.48</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportation Charges</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3579,13 +3802,31 @@
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>172.81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>120822</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1626770100</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3597,28 +3838,10 @@
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>10.26</v>
+        <v>243.96</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1610117248</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -3633,7 +3856,7 @@
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-7655.84</v>
+        <v>-168.8</v>
       </c>
     </row>
     <row r="45">
@@ -3675,7 +3898,7 @@
     <row r="47">
       <c r="E47" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3687,13 +3910,31 @@
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>30.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>120322</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>000000084VF3492</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3705,13 +3946,13 @@
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>11793.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3723,13 +3964,13 @@
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>1429.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3741,13 +3982,13 @@
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3765,7 +4006,7 @@
     <row r="52">
       <c r="E52" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3781,27 +4022,9 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>101422</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1610995899</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Shipping Charge Corrections</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3813,13 +4036,13 @@
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>0</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3831,13 +4054,13 @@
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>0</v>
+        <v>115.76</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Adjustments</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3849,13 +4072,31 @@
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>597.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>121022</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>000000084VF3502</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Worldwide Service</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3867,13 +4108,13 @@
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-421.93</v>
+        <v>107.36</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3889,27 +4130,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>100822</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>000000084VF3412</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Outbound</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3917,11 +4140,11 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>8105-00-7000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3979,9 +4202,27 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>112822</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1623620241</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Worldwide Service</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3993,31 +4234,13 @@
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>132.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>101522</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>000000084VF3422</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4025,32 +4248,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>8105-00-7000</t>
+          <t>9000-00-0000</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>101022</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1609849442</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>Discounts</t>
@@ -4071,7 +4276,7 @@
     <row r="65">
       <c r="E65" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4083,13 +4288,13 @@
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>0</v>
+        <v>906.49</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4101,13 +4306,31 @@
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>1491.59</v>
+        <v>-398.55</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>113022</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1624230714</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4119,13 +4342,13 @@
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4137,13 +4360,31 @@
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>0</v>
+        <v>155.56</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>113022</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1624401904</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4155,13 +4396,13 @@
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>0</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Government Charges</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4173,7 +4414,7 @@
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-1063.07</v>
+        <v>94.56</v>
       </c>
     </row>
     <row r="71">
@@ -4187,12 +4428,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>101722</t>
+          <t>120122</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1611447069</t>
+          <t>1624644438</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4209,7 +4450,7 @@
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-165.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4233,7 +4474,7 @@
     <row r="73">
       <c r="E73" t="inlineStr">
         <is>
-          <t>Consignee Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4245,13 +4486,13 @@
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>239.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>US Customs Duties</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4263,13 +4504,13 @@
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>0</v>
+        <v>269.44</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="inlineStr">
         <is>
-          <t>Discounts</t>
+          <t>Consignee Charges</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4281,31 +4522,13 @@
         </is>
       </c>
       <c r="K75" s="2" t="n">
-        <v>0</v>
+        <v>438.1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>100722</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1609443282</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4317,13 +4540,13 @@
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>12</v>
+        <v>-299.3</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Brokerage Charges</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -4335,13 +4558,31 @@
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>424.38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>120622</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1626183736</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -4353,31 +4594,13 @@
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>29.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>101322</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1610709868</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>US Customs Duties</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -4389,13 +4612,13 @@
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>733.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -4407,13 +4630,13 @@
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>15.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="inlineStr">
         <is>
-          <t>Govt. Charges Other Than Duties</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4425,31 +4648,13 @@
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>42.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>100370</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>101122</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>1610136147</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Brokerage Charges</t>
+          <t>Discounts</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -4461,43 +4666,367 @@
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>12</v>
+        <v>-291.62</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="inlineStr">
         <is>
+          <t>Transportation Charges</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>817.87</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>120622</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1626263088</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>120822</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1626995154</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>19.76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>112922</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1624079577</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Transportation Charges</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>356.62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Government Charges</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>120922</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1627177321</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-74.48999999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Discounts</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Consignee Charges</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>147.32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>100370</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>120122</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1624745981</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>US Customs Duties</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Govt. Charges Other Than Duties</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>9000-00-0000</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="n">
-        <v>29.66</v>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>389.76</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Brokerage Charges</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>9000-00-0000</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
